--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,56 @@
           <t>Diametro_47cm</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_35cm</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_36cm</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_37cm</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_39cm</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_41cm</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_43cm</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_44cm</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_45cm</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_46cm</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Diametro_48cm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,6 +668,16 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -711,6 +771,190 @@
       <c r="U3" t="inlineStr">
         <is>
           <t>[1]</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>marialaura</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>valentina</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>46.07530863597052</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.376737173003514</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.37690377688363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48.7737134950574</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[0, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>[0, 1]</t>
         </is>
       </c>
     </row>
